--- a/Perfil de antibiograma.xlsx
+++ b/Perfil de antibiograma.xlsx
@@ -2,38 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Computadora_Potatil_DRIVE\Proyectos_Ciencia_Datos\Ordenamiento_Essalud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disco_Auxiliar\Proyecto_Ciencia_Datos\Estudio_Essalud\Repositorio_Essalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B375A2C-744B-4D27-876D-FA2A652731B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7CCCA-DDB4-43AD-9DC0-0C3E6E894A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TABLA BASE" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja6" sheetId="7" r:id="rId1"/>
+    <sheet name="TABLA BASE" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$4:$A$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TABLA BASE'!$A$1:$CX$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$4:$A$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TABLA BASE'!$A$1:$CX$164</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId7"/>
-    <pivotCache cacheId="17" r:id="rId8"/>
+    <pivotCache cacheId="37" r:id="rId8"/>
+    <pivotCache cacheId="42" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8499" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8515" uniqueCount="253">
   <si>
     <t>Estado de la muestra</t>
   </si>
@@ -787,6 +788,12 @@
   <si>
     <t>COLUMNAS</t>
   </si>
+  <si>
+    <t>Cuenta de Microorganismo</t>
+  </si>
+  <si>
+    <t>de ese me interesa saber en que antibioticos aparece la R y S</t>
+  </si>
 </sst>
 </file>
 
@@ -827,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -837,6 +844,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,7 +1369,21 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1039372.99" maxValue="1292399.99"/>
     </cacheField>
     <cacheField name="Origen" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="13">
+        <s v="ASPIRADO ENDOTRAQUEAL"/>
+        <s v="HISOPADO RECTAL"/>
+        <s v="PUNTA CATETER "/>
+        <s v="SECRECION DE ULCERA SACRA"/>
+        <s v="OTROS"/>
+        <s v="SANGRE"/>
+        <s v="ORINA"/>
+        <s v="CULTIVO DE DISPOS. INTRAVASCULAR"/>
+        <s v="SECRECION DE PARED ABDOMINAL"/>
+        <s v="DRENAJE ABDOMINAL"/>
+        <s v="TORACOSTOMIA"/>
+        <s v="ESPUTO"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Servicio del aislamiento" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1387,7 +1411,33 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Microorganismo" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="25">
+        <s v="Enterobacter cloacae"/>
+        <s v="Acinetobacter baumannii complex/haemolyticus"/>
+        <s v="Klebsiella pneumoniae"/>
+        <s v="Serratia marcescens"/>
+        <s v="Pseudomonas aeruginosa"/>
+        <s v="Stenotrophomonas maltophilia"/>
+        <s v="Staphylococcus aureus"/>
+        <s v="Staphylococcus epidermidis"/>
+        <s v="Enterococcus faecium"/>
+        <s v="Escherichia coli"/>
+        <s v="Proteus mirabilis"/>
+        <s v="Klebsiella oxytoca"/>
+        <s v="Pantoea agglomerans"/>
+        <s v="Grupo Acinetobacter lwoffii"/>
+        <s v="Staphylococcus haemolyticus"/>
+        <s v="Morganella morganii"/>
+        <s v="Staphylococcus lugdunensis"/>
+        <s v="Staphylococcus auricularis"/>
+        <s v="Staphylococcus cohnii subsp. cohnii"/>
+        <s v="Enterococcus gallinarum"/>
+        <s v="Enterococcus durans/hirae"/>
+        <s v="Bordetella bronchiseptica"/>
+        <s v="Citrobacter freundii"/>
+        <s v="Burkholderia cepacia complex"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Habitación" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -18623,13 +18673,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="164">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="164">
   <r>
     <s v="Final"/>
     <d v="2023-05-06T00:00:00"/>
     <d v="2023-02-06T00:00:00"/>
     <n v="1271803.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -18637,7 +18687,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Enterobacter cloacae"/>
+    <x v="0"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="190202"/>
@@ -18733,7 +18783,7 @@
     <d v="2023-07-01T00:00:00"/>
     <d v="2023-01-01T00:00:00"/>
     <n v="1105899.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -18741,7 +18791,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="345411"/>
@@ -18837,7 +18887,7 @@
     <d v="2023-04-04T00:00:00"/>
     <d v="2023-03-29T00:00:00"/>
     <n v="1201621.99"/>
-    <s v="HISOPADO RECTAL"/>
+    <x v="1"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="14.2"/>
@@ -18845,7 +18895,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="483990"/>
@@ -18941,7 +18991,7 @@
     <d v="2023-03-30T00:00:00"/>
     <d v="2023-03-28T00:00:00"/>
     <n v="1200321.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -18949,7 +18999,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Serratia marcescens"/>
+    <x v="3"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="483990"/>
@@ -19045,7 +19095,7 @@
     <d v="2023-01-13T00:00:00"/>
     <d v="2023-09-01T00:00:00"/>
     <n v="1113826.99"/>
-    <s v="SECRECION DE ULCERA SACRA"/>
+    <x v="3"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -19053,7 +19103,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="483990"/>
@@ -19149,7 +19199,7 @@
     <d v="2023-06-16T00:00:00"/>
     <d v="2023-06-13T00:00:00"/>
     <n v="1283957.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -19157,7 +19207,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Stenotrophomonas maltophilia"/>
+    <x v="5"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="483990"/>
@@ -19253,7 +19303,7 @@
     <d v="2023-12-05T00:00:00"/>
     <d v="2023-08-05T00:00:00"/>
     <n v="1245064.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -19261,7 +19311,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="483990"/>
@@ -19357,7 +19407,7 @@
     <d v="2023-09-01T00:00:00"/>
     <d v="2023-04-01T00:00:00"/>
     <n v="1109834.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -19365,7 +19415,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="483990"/>
@@ -19461,7 +19511,7 @@
     <d v="2023-01-30T00:00:00"/>
     <d v="2023-01-25T00:00:00"/>
     <n v="1132460.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -19469,7 +19519,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="140022"/>
@@ -19565,7 +19615,7 @@
     <d v="2023-01-30T00:00:00"/>
     <d v="2023-01-23T00:00:00"/>
     <n v="1130055.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -19573,7 +19623,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="140022"/>
@@ -19669,7 +19719,7 @@
     <d v="2023-05-20T00:00:00"/>
     <d v="2023-05-16T00:00:00"/>
     <n v="1254089.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -19677,7 +19727,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Serratia marcescens"/>
+    <x v="3"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="375470"/>
@@ -19773,7 +19823,7 @@
     <d v="2023-06-14T00:00:00"/>
     <d v="2023-09-06T00:00:00"/>
     <n v="1279511.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="29.2"/>
@@ -19781,7 +19831,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="504333"/>
@@ -19877,7 +19927,7 @@
     <d v="2023-11-05T00:00:00"/>
     <d v="2023-04-05T00:00:00"/>
     <n v="1240294.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -19885,7 +19935,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="504333"/>
@@ -19981,7 +20031,7 @@
     <d v="2023-04-27T00:00:00"/>
     <d v="2023-04-23T00:00:00"/>
     <n v="1229406.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -19989,7 +20039,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="504333"/>
@@ -20085,7 +20135,7 @@
     <d v="2023-02-06T00:00:00"/>
     <d v="2023-05-29T00:00:00"/>
     <n v="1267263.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -20093,7 +20143,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="396686"/>
@@ -20189,7 +20239,7 @@
     <d v="2023-02-15T00:00:00"/>
     <d v="2022-04-11T00:00:00"/>
     <n v="1039372.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -20197,7 +20247,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="60814"/>
@@ -20293,7 +20343,7 @@
     <d v="2023-02-03T00:00:00"/>
     <d v="2023-02-24T00:00:00"/>
     <n v="1166707.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -20301,7 +20351,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="60814"/>
@@ -20397,7 +20447,7 @@
     <d v="2023-08-06T00:00:00"/>
     <d v="2023-02-06T00:00:00"/>
     <n v="1272197.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -20405,7 +20455,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="418443"/>
@@ -20501,7 +20551,7 @@
     <d v="2023-06-13T00:00:00"/>
     <d v="2023-08-06T00:00:00"/>
     <n v="1278683.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -20509,7 +20559,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="418443"/>
@@ -20605,7 +20655,7 @@
     <d v="2023-06-16T00:00:00"/>
     <d v="2023-12-06T00:00:00"/>
     <n v="1283602.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -20613,7 +20663,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="272322"/>
@@ -20709,7 +20759,7 @@
     <d v="2023-01-26T00:00:00"/>
     <d v="2023-01-20T00:00:00"/>
     <n v="1128325.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="16.2"/>
@@ -20717,7 +20767,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="CENTRO QUIRURGICO"/>
     <n v="179129"/>
@@ -20813,7 +20863,7 @@
     <d v="2023-02-06T00:00:00"/>
     <d v="2023-05-29T00:00:00"/>
     <n v="1267378.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <m/>
@@ -20821,7 +20871,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="233786"/>
@@ -20917,7 +20967,7 @@
     <d v="2023-06-06T00:00:00"/>
     <d v="2023-02-06T00:00:00"/>
     <n v="1271787.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -20925,7 +20975,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="233786"/>
@@ -21021,7 +21071,7 @@
     <d v="2023-06-06T00:00:00"/>
     <d v="2023-02-06T00:00:00"/>
     <n v="1271787.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -21029,7 +21079,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="233786"/>
@@ -21125,7 +21175,7 @@
     <d v="2023-04-01T00:00:00"/>
     <d v="2023-01-01T00:00:00"/>
     <n v="1106309.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21133,7 +21183,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="354191"/>
@@ -21229,7 +21279,7 @@
     <d v="2023-04-01T00:00:00"/>
     <d v="2023-01-01T00:00:00"/>
     <n v="1106309.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21237,7 +21287,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="354191"/>
@@ -21333,7 +21383,7 @@
     <d v="2023-12-01T00:00:00"/>
     <d v="2023-10-01T00:00:00"/>
     <n v="1115962.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21341,7 +21391,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Proteus mirabilis"/>
+    <x v="10"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="8028"/>
@@ -21437,7 +21487,7 @@
     <d v="2023-03-01T00:00:00"/>
     <d v="2022-12-31T00:00:00"/>
     <n v="1105474.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21445,7 +21495,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="8028"/>
@@ -21541,7 +21591,7 @@
     <d v="2023-06-13T00:00:00"/>
     <d v="2023-10-06T00:00:00"/>
     <n v="1280920.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -21549,7 +21599,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="414599"/>
@@ -21645,7 +21695,7 @@
     <d v="2023-04-03T00:00:00"/>
     <d v="2023-01-03T00:00:00"/>
     <n v="1172313.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21653,7 +21703,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="595001"/>
@@ -21749,7 +21799,7 @@
     <d v="2023-01-19T00:00:00"/>
     <d v="2023-01-15T00:00:00"/>
     <n v="1121921.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21757,7 +21807,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Proteus mirabilis"/>
+    <x v="10"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="187608"/>
@@ -21853,7 +21903,7 @@
     <d v="2023-01-14T00:00:00"/>
     <d v="2023-09-01T00:00:00"/>
     <n v="1115072.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -21861,7 +21911,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="187608"/>
@@ -21957,7 +22007,7 @@
     <d v="2023-01-14T00:00:00"/>
     <d v="2023-09-01T00:00:00"/>
     <n v="1115072.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -21965,7 +22015,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="187608"/>
@@ -22061,7 +22111,7 @@
     <d v="2023-01-25T00:00:00"/>
     <d v="2023-01-23T00:00:00"/>
     <n v="1130825.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22069,7 +22119,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="459532"/>
@@ -22165,7 +22215,7 @@
     <d v="2023-01-28T00:00:00"/>
     <d v="2023-01-24T00:00:00"/>
     <n v="1131792.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22173,7 +22223,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="459532"/>
@@ -22269,7 +22319,7 @@
     <d v="2023-01-26T00:00:00"/>
     <d v="2023-01-18T00:00:00"/>
     <n v="1125609.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22277,7 +22327,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="459532"/>
@@ -22373,7 +22423,7 @@
     <d v="2023-01-17T00:00:00"/>
     <d v="2023-01-14T00:00:00"/>
     <n v="1120939.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22381,7 +22431,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella oxytoca"/>
+    <x v="11"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="157966"/>
@@ -22477,7 +22527,7 @@
     <d v="2023-02-01T00:00:00"/>
     <d v="2022-12-24T00:00:00"/>
     <n v="1097871.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22485,7 +22535,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="157966"/>
@@ -22581,7 +22631,7 @@
     <d v="2023-10-04T00:00:00"/>
     <d v="2023-04-04T00:00:00"/>
     <n v="1208474.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22589,7 +22639,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Enterobacter cloacae"/>
+    <x v="0"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="396657"/>
@@ -22685,7 +22735,7 @@
     <d v="2023-03-20T00:00:00"/>
     <d v="2023-03-17T00:00:00"/>
     <n v="1188719.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22693,7 +22743,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="396657"/>
@@ -22789,7 +22839,7 @@
     <d v="2023-03-20T00:00:00"/>
     <d v="2023-12-28T00:00:00"/>
     <n v="1102144.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <m/>
@@ -22797,7 +22847,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="370949"/>
@@ -22893,7 +22943,7 @@
     <d v="2023-01-24T00:00:00"/>
     <d v="2023-01-21T00:00:00"/>
     <n v="1129476.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -22901,7 +22951,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="541222"/>
@@ -22997,7 +23047,7 @@
     <d v="2023-10-01T00:00:00"/>
     <d v="2023-07-01T00:00:00"/>
     <n v="1113033.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -23005,7 +23055,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="637405"/>
@@ -23101,7 +23151,7 @@
     <d v="2023-02-15T00:00:00"/>
     <d v="2023-01-21T00:00:00"/>
     <n v="1128877.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -23109,7 +23159,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="342081"/>
@@ -23205,7 +23255,7 @@
     <d v="2023-01-13T00:00:00"/>
     <d v="2023-09-01T00:00:00"/>
     <n v="1113844.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -23213,7 +23263,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="637000"/>
@@ -23309,7 +23359,7 @@
     <d v="2023-05-01T00:00:00"/>
     <d v="2023-02-01T00:00:00"/>
     <n v="1107116.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <m/>
@@ -23317,7 +23367,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638078"/>
@@ -23413,7 +23463,7 @@
     <d v="2023-07-02T00:00:00"/>
     <d v="2023-03-02T00:00:00"/>
     <n v="1143148.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -23421,7 +23471,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pantoea agglomerans"/>
+    <x v="12"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638078"/>
@@ -23517,7 +23567,7 @@
     <d v="2023-09-01T00:00:00"/>
     <d v="2023-05-01T00:00:00"/>
     <n v="1110477.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -23525,7 +23575,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638078"/>
@@ -23621,7 +23671,7 @@
     <d v="2023-09-03T00:00:00"/>
     <d v="2023-06-03T00:00:00"/>
     <n v="1176615.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -23629,7 +23679,7 @@
     <s v="R"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638078"/>
@@ -23725,7 +23775,7 @@
     <d v="2023-01-23T00:00:00"/>
     <d v="2023-01-17T00:00:00"/>
     <n v="1124087.99"/>
-    <s v="CULTIVO DE DISPOS. INTRAVASCULAR"/>
+    <x v="7"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="6"/>
@@ -23733,7 +23783,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="637093"/>
@@ -23829,7 +23879,7 @@
     <d v="2023-01-20T00:00:00"/>
     <d v="2023-01-16T00:00:00"/>
     <n v="1122688.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -23837,7 +23887,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638237"/>
@@ -23933,7 +23983,7 @@
     <d v="2023-01-13T00:00:00"/>
     <d v="2023-05-01T00:00:00"/>
     <n v="1110549.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -23941,7 +23991,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638237"/>
@@ -24037,7 +24087,7 @@
     <d v="2023-01-28T00:00:00"/>
     <d v="2023-01-21T00:00:00"/>
     <n v="1129462.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="17"/>
@@ -24045,7 +24095,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638347"/>
@@ -24141,7 +24191,7 @@
     <d v="2023-10-01T00:00:00"/>
     <d v="2023-04-01T00:00:00"/>
     <n v="1110214.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -24149,7 +24199,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638347"/>
@@ -24245,7 +24295,7 @@
     <d v="2023-02-02T00:00:00"/>
     <d v="2023-01-27T00:00:00"/>
     <n v="1135574.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -24253,7 +24303,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="108971"/>
@@ -24349,7 +24399,7 @@
     <d v="2023-09-01T00:00:00"/>
     <d v="2023-04-01T00:00:00"/>
     <n v="1109013.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -24357,7 +24407,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="108971"/>
@@ -24453,7 +24503,7 @@
     <d v="2023-07-01T00:00:00"/>
     <d v="2023-04-01T00:00:00"/>
     <n v="1109012.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -24461,7 +24511,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="108971"/>
@@ -24557,7 +24607,7 @@
     <d v="2023-01-20T00:00:00"/>
     <d v="2023-12-01T00:00:00"/>
     <n v="1118775.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -24565,7 +24615,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638651"/>
@@ -24661,7 +24711,7 @@
     <d v="2023-12-01T00:00:00"/>
     <d v="2023-07-01T00:00:00"/>
     <n v="1112587.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="8.4"/>
@@ -24669,7 +24719,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="325223"/>
@@ -24765,7 +24815,7 @@
     <d v="2023-02-01T00:00:00"/>
     <d v="2022-12-28T00:00:00"/>
     <n v="1102281.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -24773,7 +24823,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Stenotrophomonas maltophilia"/>
+    <x v="5"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638786"/>
@@ -24869,7 +24919,7 @@
     <d v="2023-01-16T00:00:00"/>
     <d v="2023-09-01T00:00:00"/>
     <n v="1115406.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -24877,7 +24927,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="639038"/>
@@ -24973,7 +25023,7 @@
     <d v="2023-01-02T00:00:00"/>
     <d v="2023-01-27T00:00:00"/>
     <n v="1134770.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="17"/>
@@ -24981,7 +25031,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="EMERGENCIA"/>
     <n v="640226"/>
@@ -25077,7 +25127,7 @@
     <d v="2023-01-02T00:00:00"/>
     <d v="2023-01-27T00:00:00"/>
     <n v="1134770.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -25085,7 +25135,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="EMERGENCIA"/>
     <n v="640226"/>
@@ -25181,7 +25231,7 @@
     <d v="2023-10-02T00:00:00"/>
     <d v="2023-04-02T00:00:00"/>
     <n v="1143966.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -25189,7 +25239,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Grupo Acinetobacter lwoffii"/>
+    <x v="13"/>
     <s v="HAB"/>
     <s v="EMERGENCIA"/>
     <n v="640226"/>
@@ -25285,7 +25335,7 @@
     <d v="2023-02-14T00:00:00"/>
     <d v="2023-08-02T00:00:00"/>
     <n v="1148400.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="12.8"/>
@@ -25293,7 +25343,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="629537"/>
@@ -25389,7 +25439,7 @@
     <d v="2023-03-04T00:00:00"/>
     <d v="2023-03-29T00:00:00"/>
     <n v="1201622.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -25397,7 +25447,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="629537"/>
@@ -25493,7 +25543,7 @@
     <d v="2023-01-25T00:00:00"/>
     <d v="2023-01-19T00:00:00"/>
     <n v="1126385.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -25501,7 +25551,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="629537"/>
@@ -25597,7 +25647,7 @@
     <d v="2023-03-14T00:00:00"/>
     <d v="2023-11-03T00:00:00"/>
     <n v="1182498.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -25605,7 +25655,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus haemolyticus"/>
+    <x v="14"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="629537"/>
@@ -25701,7 +25751,7 @@
     <d v="2023-08-02T00:00:00"/>
     <d v="2023-03-02T00:00:00"/>
     <n v="1142914.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -25709,7 +25759,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="629537"/>
@@ -25805,7 +25855,7 @@
     <d v="2023-02-03T00:00:00"/>
     <d v="2023-02-26T00:00:00"/>
     <n v="1169140.99"/>
-    <s v="SECRECION DE PARED ABDOMINAL"/>
+    <x v="8"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="30.1"/>
@@ -25813,7 +25863,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="282166"/>
@@ -25909,7 +25959,7 @@
     <d v="2023-06-02T00:00:00"/>
     <d v="2023-01-02T00:00:00"/>
     <n v="1140341.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="16"/>
@@ -25917,7 +25967,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="638949"/>
@@ -26013,7 +26063,7 @@
     <d v="2023-02-02T00:00:00"/>
     <d v="2023-01-30T00:00:00"/>
     <n v="1138119.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26021,7 +26071,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="487527"/>
@@ -26117,7 +26167,7 @@
     <d v="2023-01-26T00:00:00"/>
     <d v="2023-01-21T00:00:00"/>
     <n v="1128528.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26125,7 +26175,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="487527"/>
@@ -26221,7 +26271,7 @@
     <d v="2023-01-26T00:00:00"/>
     <d v="2023-01-21T00:00:00"/>
     <n v="1128525.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26229,7 +26279,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="487527"/>
@@ -26325,7 +26375,7 @@
     <d v="2023-01-26T00:00:00"/>
     <d v="2023-01-21T00:00:00"/>
     <n v="1128528.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -26333,7 +26383,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="487527"/>
@@ -26429,7 +26479,7 @@
     <d v="2023-01-04T00:00:00"/>
     <d v="2023-03-29T00:00:00"/>
     <n v="1202053.99"/>
-    <s v="HISOPADO RECTAL"/>
+    <x v="1"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26437,7 +26487,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="586511"/>
@@ -26533,7 +26583,7 @@
     <d v="2023-08-02T00:00:00"/>
     <d v="2023-03-02T00:00:00"/>
     <n v="1143117.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="15.2"/>
@@ -26541,7 +26591,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="586511"/>
@@ -26637,7 +26687,7 @@
     <d v="2023-02-23T00:00:00"/>
     <d v="2023-02-18T00:00:00"/>
     <n v="1160400.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26645,7 +26695,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="586511"/>
@@ -26741,7 +26791,7 @@
     <d v="2023-02-13T00:00:00"/>
     <d v="2023-03-02T00:00:00"/>
     <n v="1143104.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26749,7 +26799,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="586511"/>
@@ -26845,7 +26895,7 @@
     <d v="2023-06-03T00:00:00"/>
     <d v="2023-02-28T00:00:00"/>
     <n v="1171312.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26853,7 +26903,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="586511"/>
@@ -26949,7 +26999,7 @@
     <d v="2023-02-02T00:00:00"/>
     <d v="2023-01-30T00:00:00"/>
     <n v="1138062.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -26957,7 +27007,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="309252"/>
@@ -27053,7 +27103,7 @@
     <d v="2023-02-21T00:00:00"/>
     <d v="2023-02-17T00:00:00"/>
     <n v="1159174.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="15.6"/>
@@ -27061,7 +27111,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="387115"/>
@@ -27157,7 +27207,7 @@
     <d v="2023-04-03T00:00:00"/>
     <d v="2023-02-03T00:00:00"/>
     <n v="1173186.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27165,7 +27215,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="140654"/>
@@ -27261,7 +27311,7 @@
     <d v="2023-11-02T00:00:00"/>
     <d v="2023-03-02T00:00:00"/>
     <n v="1142892.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27269,7 +27319,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="140654"/>
@@ -27365,7 +27415,7 @@
     <d v="2023-02-15T00:00:00"/>
     <d v="2023-08-02T00:00:00"/>
     <n v="1148296.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="12.5"/>
@@ -27373,7 +27423,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="140654"/>
@@ -27469,7 +27519,7 @@
     <d v="2023-11-02T00:00:00"/>
     <d v="2023-03-02T00:00:00"/>
     <n v="1142892.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27477,7 +27527,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="140654"/>
@@ -27573,7 +27623,7 @@
     <d v="2023-02-05T00:00:00"/>
     <d v="2023-04-26T00:00:00"/>
     <n v="1233239.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27581,7 +27631,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642846"/>
@@ -27677,7 +27727,7 @@
     <d v="2023-02-28T00:00:00"/>
     <d v="2023-02-23T00:00:00"/>
     <n v="1165554.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27685,7 +27735,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Morganella morganii"/>
+    <x v="15"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642853"/>
@@ -27781,7 +27831,7 @@
     <d v="2023-02-15T00:00:00"/>
     <d v="2023-12-02T00:00:00"/>
     <n v="1153670.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27789,7 +27839,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642853"/>
@@ -27885,7 +27935,7 @@
     <d v="2023-02-18T00:00:00"/>
     <d v="2023-02-13T00:00:00"/>
     <n v="1154662.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27893,7 +27943,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642853"/>
@@ -27989,7 +28039,7 @@
     <d v="2023-02-28T00:00:00"/>
     <d v="2023-02-23T00:00:00"/>
     <n v="1165553.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -27997,7 +28047,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus haemolyticus"/>
+    <x v="14"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642853"/>
@@ -28093,7 +28143,7 @@
     <d v="2023-02-28T00:00:00"/>
     <d v="2023-02-23T00:00:00"/>
     <n v="1165554.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -28101,7 +28151,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus lugdunensis"/>
+    <x v="16"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642853"/>
@@ -28197,7 +28247,7 @@
     <d v="2023-02-03T00:00:00"/>
     <d v="2023-02-26T00:00:00"/>
     <n v="1169401.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="21.8"/>
@@ -28205,7 +28255,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642763"/>
@@ -28301,7 +28351,7 @@
     <d v="2023-03-05T00:00:00"/>
     <d v="2023-04-25T00:00:00"/>
     <n v="1231300.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -28309,7 +28359,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella oxytoca"/>
+    <x v="11"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642763"/>
@@ -28405,7 +28455,7 @@
     <d v="2023-02-03T00:00:00"/>
     <d v="2023-02-26T00:00:00"/>
     <n v="1169401.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -28413,7 +28463,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Proteus mirabilis"/>
+    <x v="10"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642763"/>
@@ -28509,7 +28559,7 @@
     <d v="2023-03-13T00:00:00"/>
     <d v="2023-09-03T00:00:00"/>
     <n v="1180754.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -28517,7 +28567,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642763"/>
@@ -28613,7 +28663,7 @@
     <d v="2023-02-18T00:00:00"/>
     <d v="2023-02-14T00:00:00"/>
     <n v="1155006.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -28621,7 +28671,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="642763"/>
@@ -28717,7 +28767,7 @@
     <d v="2023-04-22T00:00:00"/>
     <d v="2023-04-18T00:00:00"/>
     <n v="1223466.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="16"/>
@@ -28725,7 +28775,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="508850"/>
@@ -28821,7 +28871,7 @@
     <d v="2023-07-03T00:00:00"/>
     <d v="2023-01-03T00:00:00"/>
     <n v="1172989.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="19.2"/>
@@ -28829,7 +28879,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="131962"/>
@@ -28925,7 +28975,7 @@
     <d v="2023-02-21T00:00:00"/>
     <d v="2023-02-17T00:00:00"/>
     <n v="1159488.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -28933,7 +28983,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Stenotrophomonas maltophilia"/>
+    <x v="5"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="131962"/>
@@ -29029,7 +29079,7 @@
     <d v="2023-02-14T00:00:00"/>
     <d v="2023-11-02T00:00:00"/>
     <n v="1151922.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29037,7 +29087,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Enterobacter cloacae"/>
+    <x v="0"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="580811"/>
@@ -29133,7 +29183,7 @@
     <d v="2023-02-23T00:00:00"/>
     <d v="2023-02-20T00:00:00"/>
     <n v="1162121.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29141,7 +29191,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus haemolyticus"/>
+    <x v="14"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="580811"/>
@@ -29237,7 +29287,7 @@
     <d v="2023-08-03T00:00:00"/>
     <d v="2023-06-03T00:00:00"/>
     <n v="1176890.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29245,7 +29295,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Proteus mirabilis"/>
+    <x v="10"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="643699"/>
@@ -29341,7 +29391,7 @@
     <d v="2023-03-04T00:00:00"/>
     <d v="2023-03-27T00:00:00"/>
     <n v="1199353.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29349,7 +29399,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="643699"/>
@@ -29445,7 +29495,7 @@
     <d v="2023-03-03T00:00:00"/>
     <d v="2023-02-27T00:00:00"/>
     <n v="1170857.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29453,7 +29503,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus haemolyticus"/>
+    <x v="14"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="643699"/>
@@ -29549,7 +29599,7 @@
     <d v="2023-07-03T00:00:00"/>
     <d v="2023-03-03T00:00:00"/>
     <n v="1175191.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29557,7 +29607,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus auricularis"/>
+    <x v="17"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="643699"/>
@@ -29653,7 +29703,7 @@
     <d v="2023-02-25T00:00:00"/>
     <d v="2023-02-20T00:00:00"/>
     <n v="1162489.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -29661,7 +29711,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="643699"/>
@@ -29757,7 +29807,7 @@
     <d v="2023-06-06T00:00:00"/>
     <d v="2023-01-06T00:00:00"/>
     <n v="1271023.99"/>
-    <s v="DRENAJE ABDOMINAL"/>
+    <x v="9"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29765,7 +29815,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <s v="Staphylococcus cohnii subsp. cohnii"/>
+    <x v="18"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="156033"/>
@@ -29861,7 +29911,7 @@
     <d v="2023-05-27T00:00:00"/>
     <d v="2023-05-24T00:00:00"/>
     <n v="1262208.99"/>
-    <s v="DRENAJE ABDOMINAL"/>
+    <x v="9"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29869,7 +29919,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus gallinarum"/>
+    <x v="19"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="156033"/>
@@ -29965,7 +30015,7 @@
     <d v="2023-04-04T00:00:00"/>
     <d v="2023-03-25T00:00:00"/>
     <n v="1198156.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -29973,7 +30023,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="482697"/>
@@ -30069,7 +30119,7 @@
     <d v="2023-03-30T00:00:00"/>
     <d v="2023-03-25T00:00:00"/>
     <n v="1198155.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -30077,7 +30127,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus haemolyticus"/>
+    <x v="14"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="482697"/>
@@ -30173,7 +30223,7 @@
     <d v="2023-03-29T00:00:00"/>
     <d v="2023-03-25T00:00:00"/>
     <n v="1198157.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -30181,7 +30231,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <s v="Staphylococcus auricularis"/>
+    <x v="17"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="482697"/>
@@ -30277,7 +30327,7 @@
     <d v="2023-09-03T00:00:00"/>
     <d v="2023-06-03T00:00:00"/>
     <n v="1176277.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="18.2"/>
@@ -30285,7 +30335,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644116"/>
@@ -30381,7 +30431,7 @@
     <d v="2023-04-15T00:00:00"/>
     <d v="2023-10-04T00:00:00"/>
     <n v="1214325.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="FENOTIPO METALOCARBAPENEMASA"/>
     <n v="6"/>
@@ -30389,7 +30439,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644116"/>
@@ -30485,7 +30535,7 @@
     <d v="2023-04-14T00:00:00"/>
     <d v="2023-10-04T00:00:00"/>
     <n v="1214330.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -30493,7 +30543,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644116"/>
@@ -30589,7 +30639,7 @@
     <d v="2023-08-04T00:00:00"/>
     <d v="2023-02-04T00:00:00"/>
     <n v="1206150.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -30597,7 +30647,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644116"/>
@@ -30693,7 +30743,7 @@
     <d v="2023-04-17T00:00:00"/>
     <d v="2023-11-04T00:00:00"/>
     <n v="1215015.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="16.2"/>
@@ -30701,7 +30751,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="499609"/>
@@ -30797,7 +30847,7 @@
     <d v="2023-10-04T00:00:00"/>
     <d v="2023-06-04T00:00:00"/>
     <n v="1210629.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -30805,7 +30855,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="499609"/>
@@ -30901,7 +30951,7 @@
     <d v="2023-03-17T00:00:00"/>
     <d v="2023-10-03T00:00:00"/>
     <n v="1182184.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="18.399999999999999"/>
@@ -30909,7 +30959,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="495035"/>
@@ -31005,7 +31055,7 @@
     <d v="2023-12-05T00:00:00"/>
     <d v="2023-09-05T00:00:00"/>
     <n v="1246720.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -31013,7 +31063,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Proteus mirabilis"/>
+    <x v="10"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="495035"/>
@@ -31109,7 +31159,7 @@
     <d v="2023-04-24T00:00:00"/>
     <d v="2023-04-19T00:00:00"/>
     <n v="1224861.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -31117,7 +31167,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="495035"/>
@@ -31213,7 +31263,7 @@
     <d v="2023-04-24T00:00:00"/>
     <d v="2023-04-19T00:00:00"/>
     <n v="1224861.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -31221,7 +31271,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="495035"/>
@@ -31317,7 +31367,7 @@
     <d v="2023-04-26T00:00:00"/>
     <d v="2023-04-21T00:00:00"/>
     <n v="1227927.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="16.600000000000001"/>
@@ -31325,7 +31375,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="617557"/>
@@ -31421,7 +31471,7 @@
     <d v="2023-03-04T00:00:00"/>
     <d v="2023-03-29T00:00:00"/>
     <n v="1201661.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="FENOTIPO METALOCARBAPENEMASA"/>
     <n v="8.1999999999999993"/>
@@ -31429,7 +31479,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644822"/>
@@ -31525,7 +31575,7 @@
     <d v="2023-03-23T00:00:00"/>
     <d v="2023-03-16T00:00:00"/>
     <n v="1188272.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="16"/>
@@ -31533,7 +31583,7 @@
     <s v="R"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="CENTRO QUIRURGICO"/>
     <n v="643388"/>
@@ -31629,7 +31679,7 @@
     <d v="2023-03-13T00:00:00"/>
     <d v="2023-09-03T00:00:00"/>
     <n v="1179801.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -31637,7 +31687,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Enterobacter cloacae"/>
+    <x v="0"/>
     <s v="HAB"/>
     <s v="CENTRO QUIRURGICO"/>
     <n v="643388"/>
@@ -31733,7 +31783,7 @@
     <d v="2023-03-13T00:00:00"/>
     <d v="2023-09-03T00:00:00"/>
     <n v="1179801.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -31741,7 +31791,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="CENTRO QUIRURGICO"/>
     <n v="643388"/>
@@ -31837,7 +31887,7 @@
     <d v="2023-09-05T00:00:00"/>
     <d v="2023-03-05T00:00:00"/>
     <n v="1239709.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="13.4"/>
@@ -31845,7 +31895,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="611181"/>
@@ -31941,7 +31991,7 @@
     <d v="2023-04-18T00:00:00"/>
     <d v="2023-04-13T00:00:00"/>
     <n v="1217363.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -31949,7 +31999,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="611181"/>
@@ -32045,7 +32095,7 @@
     <d v="2023-10-04T00:00:00"/>
     <d v="2023-03-04T00:00:00"/>
     <n v="1206894.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32053,7 +32103,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Morganella morganii"/>
+    <x v="15"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644619"/>
@@ -32149,7 +32199,7 @@
     <d v="2023-04-17T00:00:00"/>
     <d v="2023-04-13T00:00:00"/>
     <n v="1218281.99"/>
-    <s v="TORACOSTOMIA"/>
+    <x v="10"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32157,7 +32207,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644619"/>
@@ -32253,7 +32303,7 @@
     <d v="2023-03-20T00:00:00"/>
     <d v="2023-03-16T00:00:00"/>
     <n v="1187603.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32261,7 +32311,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644619"/>
@@ -32357,7 +32407,7 @@
     <d v="2023-03-24T00:00:00"/>
     <d v="2023-03-19T00:00:00"/>
     <n v="1190765.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -32365,7 +32415,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644619"/>
@@ -32461,7 +32511,7 @@
     <d v="2023-04-04T00:00:00"/>
     <d v="2023-03-29T00:00:00"/>
     <n v="1201991.31"/>
-    <s v="HISOPADO RECTAL"/>
+    <x v="1"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32469,7 +32519,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644787"/>
@@ -32565,7 +32615,7 @@
     <d v="2023-04-18T00:00:00"/>
     <d v="2023-04-14T00:00:00"/>
     <n v="1219935.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32573,7 +32623,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644787"/>
@@ -32669,7 +32719,7 @@
     <d v="2023-02-05T00:00:00"/>
     <d v="2023-04-25T00:00:00"/>
     <n v="1231375.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32677,7 +32727,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella oxytoca"/>
+    <x v="11"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644787"/>
@@ -32773,7 +32823,7 @@
     <d v="2023-04-22T00:00:00"/>
     <d v="2023-04-18T00:00:00"/>
     <n v="1224155.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32781,7 +32831,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus epidermidis"/>
+    <x v="7"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644787"/>
@@ -32877,7 +32927,7 @@
     <d v="2023-10-04T00:00:00"/>
     <d v="2023-03-04T00:00:00"/>
     <n v="1207582.99"/>
-    <s v="PUNTA CATETER "/>
+    <x v="2"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32885,7 +32935,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="644787"/>
@@ -32981,7 +33031,7 @@
     <d v="2023-08-04T00:00:00"/>
     <d v="2023-03-04T00:00:00"/>
     <n v="1206704.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -32989,7 +33039,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Stenotrophomonas maltophilia"/>
+    <x v="5"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="341596"/>
@@ -33085,7 +33135,7 @@
     <d v="2023-08-04T00:00:00"/>
     <d v="2023-03-04T00:00:00"/>
     <n v="1206704.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33093,7 +33143,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="341596"/>
@@ -33189,7 +33239,7 @@
     <d v="2023-04-22T00:00:00"/>
     <d v="2023-09-04T00:00:00"/>
     <n v="1212499.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33197,7 +33247,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus durans/hirae"/>
+    <x v="20"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="341596"/>
@@ -33293,7 +33343,7 @@
     <d v="2023-03-31T00:00:00"/>
     <d v="2023-03-28T00:00:00"/>
     <n v="1200269.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33301,7 +33351,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="409681"/>
@@ -33397,7 +33447,7 @@
     <d v="2023-04-24T00:00:00"/>
     <d v="2023-04-18T00:00:00"/>
     <n v="1223515.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33405,7 +33455,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="426364"/>
@@ -33501,7 +33551,7 @@
     <d v="2023-05-27T00:00:00"/>
     <d v="2023-05-22T00:00:00"/>
     <n v="1260486.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="12.6"/>
@@ -33509,7 +33559,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="649173"/>
@@ -33605,7 +33655,7 @@
     <d v="2023-05-25T00:00:00"/>
     <d v="2023-05-21T00:00:00"/>
     <n v="1258840.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33613,7 +33663,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella oxytoca"/>
+    <x v="11"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="649173"/>
@@ -33709,7 +33759,7 @@
     <d v="2023-04-17T00:00:00"/>
     <d v="2023-12-04T00:00:00"/>
     <n v="1216826.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33717,7 +33767,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Bordetella bronchiseptica"/>
+    <x v="21"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="516493"/>
@@ -33813,7 +33863,7 @@
     <d v="2023-04-28T00:00:00"/>
     <d v="2023-04-24T00:00:00"/>
     <n v="1230559.99"/>
-    <s v="ESPUTO"/>
+    <x v="11"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="18.3"/>
@@ -33821,7 +33871,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="649157"/>
@@ -33917,7 +33967,7 @@
     <d v="2023-09-05T00:00:00"/>
     <d v="2023-04-29T00:00:00"/>
     <n v="1236136.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -33925,7 +33975,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <s v="Enterococcus faecium"/>
+    <x v="8"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="649157"/>
@@ -34021,7 +34071,7 @@
     <d v="2023-04-28T00:00:00"/>
     <d v="2023-04-24T00:00:00"/>
     <n v="1230559.99"/>
-    <s v="ESPUTO"/>
+    <x v="11"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34029,7 +34079,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="649157"/>
@@ -34125,7 +34175,7 @@
     <d v="2023-04-21T00:00:00"/>
     <d v="2023-04-18T00:00:00"/>
     <n v="1223399.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34133,7 +34183,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="595735"/>
@@ -34229,7 +34279,7 @@
     <d v="2023-05-18T00:00:00"/>
     <d v="2023-05-15T00:00:00"/>
     <n v="1252478.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <m/>
@@ -34237,7 +34287,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="650636"/>
@@ -34333,7 +34383,7 @@
     <d v="2023-05-05T00:00:00"/>
     <d v="2023-04-28T00:00:00"/>
     <n v="1235107.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="FENOTIPO METALOCARBAPENEMASA"/>
     <n v="6"/>
@@ -34341,7 +34391,7 @@
     <s v="S"/>
     <x v="0"/>
     <m/>
-    <s v="Pseudomonas aeruginosa"/>
+    <x v="4"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="650636"/>
@@ -34437,7 +34487,7 @@
     <d v="2023-04-25T00:00:00"/>
     <d v="2023-04-23T00:00:00"/>
     <n v="1229228.21"/>
-    <s v="ORINA"/>
+    <x v="6"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34445,7 +34495,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Citrobacter freundii"/>
+    <x v="22"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="650166"/>
@@ -34541,7 +34591,7 @@
     <d v="2023-03-05T00:00:00"/>
     <d v="2023-04-25T00:00:00"/>
     <n v="1231953.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34549,7 +34599,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="649360"/>
@@ -34645,7 +34695,7 @@
     <d v="2023-04-05T00:00:00"/>
     <d v="2023-04-29T00:00:00"/>
     <n v="1236204.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="14.3"/>
@@ -34653,7 +34703,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="584946"/>
@@ -34749,7 +34799,7 @@
     <d v="2023-05-24T00:00:00"/>
     <d v="2023-05-22T00:00:00"/>
     <n v="1259440.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34757,7 +34807,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Enterobacter cloacae"/>
+    <x v="0"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="651704"/>
@@ -34853,7 +34903,7 @@
     <d v="2023-05-18T00:00:00"/>
     <d v="2023-10-05T00:00:00"/>
     <n v="1247002.4099999999"/>
-    <s v="SANGRE"/>
+    <x v="5"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34861,7 +34911,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Burkholderia cepacia complex"/>
+    <x v="23"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="652203"/>
@@ -34957,7 +35007,7 @@
     <d v="2023-05-27T00:00:00"/>
     <d v="2023-05-23T00:00:00"/>
     <n v="1260671.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -34965,7 +35015,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <s v="Staphylococcus aureus"/>
+    <x v="6"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="652931"/>
@@ -35061,7 +35111,7 @@
     <d v="2023-05-06T00:00:00"/>
     <d v="2023-01-06T00:00:00"/>
     <n v="1270702.99"/>
-    <s v="ASPIRADO ENDOTRAQUEAL"/>
+    <x v="0"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -35069,7 +35119,7 @@
     <m/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="497447"/>
@@ -35165,7 +35215,7 @@
     <d v="2023-06-21T00:00:00"/>
     <d v="2023-06-18T00:00:00"/>
     <n v="1289808.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -35173,7 +35223,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="EMERGENCIA"/>
     <n v="654262"/>
@@ -35269,7 +35319,7 @@
     <d v="2023-12-06T00:00:00"/>
     <d v="2023-08-06T00:00:00"/>
     <n v="1278830.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="PROBABLE CARB OXA"/>
     <m/>
@@ -35277,7 +35327,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <s v="Acinetobacter baumannii complex/haemolyticus"/>
+    <x v="1"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="654745"/>
@@ -35373,7 +35423,7 @@
     <d v="2023-06-14T00:00:00"/>
     <d v="2023-12-06T00:00:00"/>
     <n v="1281915.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <m/>
     <m/>
@@ -35381,7 +35431,7 @@
     <m/>
     <x v="0"/>
     <s v="Positivo"/>
-    <s v="Escherichia coli"/>
+    <x v="9"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="613973"/>
@@ -35477,7 +35527,7 @@
     <d v="2023-06-20T00:00:00"/>
     <d v="2023-06-20T00:00:00"/>
     <n v="1292399.99"/>
-    <s v="OTROS"/>
+    <x v="4"/>
     <s v="MEDICINA INTENSIVA"/>
     <s v="CONFIRMADO FENOTIPO KPC"/>
     <n v="26"/>
@@ -35485,7 +35535,7 @@
     <s v="S"/>
     <x v="0"/>
     <s v="Negativo"/>
-    <s v="Klebsiella pneumoniae"/>
+    <x v="2"/>
     <s v="HAB"/>
     <s v="HOSPITALIZACION"/>
     <n v="613973"/>
@@ -35581,15 +35631,15 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="24"/>
     <m/>
     <m/>
     <m/>
@@ -35684,7 +35734,722 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="Tabla dinámica4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C2092D4-2CD0-4DC4-9452-418BF03B2056}" name="TablaDinámica7" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="102">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item h="1" x="9"/>
+        <item h="1" x="11"/>
+        <item h="1" x="1"/>
+        <item h="1" x="6"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="10"/>
+        <item h="1" x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="26">
+        <item x="1"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Microorganismo" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica13" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D12:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="102">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="25">
+        <item x="1"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="53"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="4" item="8" hier="-1"/>
+    <pageField fld="12" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Cuenta de Daptomicina Interpretación" fld="53" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabla dinámica12" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D4:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="102">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="25">
+        <item x="1"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="99"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="4" item="8" hier="-1"/>
+    <pageField fld="12" item="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Cuenta de Vancomicina Interpretación" fld="99" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="Tabla dinámica4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="102">
     <pivotField showAll="0"/>
@@ -35903,7 +36668,7 @@
     <dataField name="Cuenta de Amp/Sulbactam Interpretación" fld="23" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -35919,8 +36684,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabla dinámica14" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabla dinámica14" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D20:E22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="102">
     <pivotField showAll="0"/>
@@ -36162,496 +36927,6 @@
     <dataField name="Cuenta de Linezolid Interpretación" fld="73" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica13" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D12:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="102">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="25">
-        <item x="1"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="53"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="4" item="8" hier="-1"/>
-    <pageField fld="12" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Cuenta de Daptomicina Interpretación" fld="53" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabla dinámica12" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D4:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="102">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="25">
-        <item x="1"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="99"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="4" item="8" hier="-1"/>
-    <pageField fld="12" item="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Cuenta de Vancomicina Interpretación" fld="99" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
     <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
@@ -36668,8 +36943,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="102">
     <pivotField showAll="0"/>
@@ -37100,15 +37375,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F7471A-BE12-47B4-A740-47B009F75D09}">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="8">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:CX164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V16" sqref="V16"/>
+      <pane xSplit="4" topLeftCell="BQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT144" sqref="BT144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37122,7 +37531,7 @@
     <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="7"/>
+    <col min="13" max="13" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.25">
@@ -37186,7 +37595,7 @@
       <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
       <c r="V1" t="s">
@@ -37433,7 +37842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -37479,7 +37888,7 @@
       <c r="T2" t="s">
         <v>108</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" t="s">
         <v>109</v>
       </c>
       <c r="V2" t="s">
@@ -37621,7 +38030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -37664,7 +38073,7 @@
       <c r="T3" t="s">
         <v>110</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" t="s">
         <v>109</v>
       </c>
       <c r="W3" t="s">
@@ -37779,7 +38188,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -37837,7 +38246,7 @@
       <c r="T4" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" t="s">
         <v>109</v>
       </c>
       <c r="V4" t="s">
@@ -37982,7 +38391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -38028,7 +38437,7 @@
       <c r="T5" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" t="s">
         <v>133</v>
       </c>
       <c r="V5" t="s">
@@ -38170,7 +38579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -38216,7 +38625,7 @@
       <c r="T6" t="s">
         <v>110</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" t="s">
         <v>109</v>
       </c>
       <c r="W6" t="s">
@@ -38331,7 +38740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -38371,7 +38780,7 @@
       <c r="S7" t="s">
         <v>123</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" t="s">
         <v>109</v>
       </c>
       <c r="W7" t="s">
@@ -38462,7 +38871,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -38502,7 +38911,7 @@
       <c r="R8" t="s">
         <v>106</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" t="s">
         <v>142</v>
       </c>
       <c r="V8" t="s">
@@ -38623,7 +39032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -38663,7 +39072,7 @@
       <c r="R9" t="s">
         <v>106</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" t="s">
         <v>148</v>
       </c>
       <c r="V9" t="s">
@@ -38784,7 +39193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -38824,7 +39233,7 @@
       <c r="R10" t="s">
         <v>152</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" t="s">
         <v>142</v>
       </c>
       <c r="V10" t="s">
@@ -38945,7 +39354,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -38994,7 +39403,7 @@
       <c r="T11" t="s">
         <v>110</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" t="s">
         <v>109</v>
       </c>
       <c r="W11" t="s">
@@ -39109,7 +39518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -39155,7 +39564,7 @@
       <c r="T12" t="s">
         <v>108</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" t="s">
         <v>109</v>
       </c>
       <c r="V12" t="s">
@@ -39297,7 +39706,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -39355,7 +39764,7 @@
       <c r="T13" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" t="s">
         <v>109</v>
       </c>
       <c r="V13" t="s">
@@ -39537,7 +39946,7 @@
       <c r="R14" t="s">
         <v>152</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" t="s">
         <v>142</v>
       </c>
       <c r="Y14" t="s">
@@ -39637,7 +40046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -39686,7 +40095,7 @@
       <c r="T15" t="s">
         <v>110</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" t="s">
         <v>109</v>
       </c>
       <c r="W15" t="s">
@@ -39801,7 +40210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -39850,7 +40259,7 @@
       <c r="T16" t="s">
         <v>110</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" t="s">
         <v>109</v>
       </c>
       <c r="W16" t="s">
@@ -39965,7 +40374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -40008,7 +40417,7 @@
       <c r="T17" t="s">
         <v>108</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" t="s">
         <v>109</v>
       </c>
       <c r="W17" t="s">
@@ -40123,7 +40532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -40166,7 +40575,7 @@
       <c r="T18" t="s">
         <v>110</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" t="s">
         <v>109</v>
       </c>
       <c r="W18" t="s">
@@ -40318,7 +40727,7 @@
       <c r="R19" t="s">
         <v>152</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" t="s">
         <v>161</v>
       </c>
       <c r="Y19" t="s">
@@ -40418,7 +40827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -40458,7 +40867,7 @@
       <c r="R20" t="s">
         <v>152</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" t="s">
         <v>142</v>
       </c>
       <c r="V20" t="s">
@@ -40579,7 +40988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -40619,7 +41028,7 @@
       <c r="R21" t="s">
         <v>106</v>
       </c>
-      <c r="U21" s="7" t="s">
+      <c r="U21" t="s">
         <v>142</v>
       </c>
       <c r="V21" t="s">
@@ -40737,7 +41146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -40795,7 +41204,7 @@
       <c r="T22" t="s">
         <v>108</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="U22" t="s">
         <v>109</v>
       </c>
       <c r="V22" t="s">
@@ -40940,7 +41349,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -40992,7 +41401,7 @@
       <c r="T23" t="s">
         <v>108</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" t="s">
         <v>109</v>
       </c>
       <c r="V23" t="s">
@@ -41137,7 +41546,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -41177,7 +41586,7 @@
       <c r="R24" t="s">
         <v>152</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" t="s">
         <v>142</v>
       </c>
       <c r="V24" t="s">
@@ -41298,7 +41707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -41347,7 +41756,7 @@
       <c r="T25" t="s">
         <v>110</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" t="s">
         <v>109</v>
       </c>
       <c r="W25" t="s">
@@ -41462,7 +41871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -41508,7 +41917,7 @@
       <c r="T26" t="s">
         <v>108</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U26" t="s">
         <v>133</v>
       </c>
       <c r="V26" t="s">
@@ -41653,7 +42062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -41693,7 +42102,7 @@
       <c r="R27" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" t="s">
         <v>142</v>
       </c>
       <c r="V27" t="s">
@@ -41814,7 +42223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -41860,7 +42269,7 @@
       <c r="T28" t="s">
         <v>108</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" t="s">
         <v>161</v>
       </c>
       <c r="V28" t="s">
@@ -41978,7 +42387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -42018,7 +42427,7 @@
       <c r="R29" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="U29" t="s">
         <v>161</v>
       </c>
       <c r="V29" t="s">
@@ -42142,7 +42551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -42191,7 +42600,7 @@
       <c r="T30" t="s">
         <v>110</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="U30" t="s">
         <v>109</v>
       </c>
       <c r="W30" t="s">
@@ -42306,7 +42715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -42352,7 +42761,7 @@
       <c r="T31" t="s">
         <v>108</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" t="s">
         <v>161</v>
       </c>
       <c r="V31" t="s">
@@ -42473,7 +42882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -42519,7 +42928,7 @@
       <c r="T32" t="s">
         <v>108</v>
       </c>
-      <c r="U32" s="7" t="s">
+      <c r="U32" t="s">
         <v>133</v>
       </c>
       <c r="V32" t="s">
@@ -42658,7 +43067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -42698,7 +43107,7 @@
       <c r="R33" t="s">
         <v>152</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U33" t="s">
         <v>142</v>
       </c>
       <c r="V33" t="s">
@@ -42819,7 +43228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -42865,7 +43274,7 @@
       <c r="T34" t="s">
         <v>110</v>
       </c>
-      <c r="U34" s="7" t="s">
+      <c r="U34" t="s">
         <v>109</v>
       </c>
       <c r="W34" t="s">
@@ -42980,7 +43389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -43026,7 +43435,7 @@
       <c r="T35" t="s">
         <v>108</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35">
         <v>45154</v>
       </c>
       <c r="V35" t="s">
@@ -43171,7 +43580,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -43211,7 +43620,7 @@
       <c r="R36" t="s">
         <v>152</v>
       </c>
-      <c r="U36" s="7" t="s">
+      <c r="U36" t="s">
         <v>142</v>
       </c>
       <c r="V36" t="s">
@@ -43332,7 +43741,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -43375,7 +43784,7 @@
       <c r="T37" t="s">
         <v>110</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" t="s">
         <v>109</v>
       </c>
       <c r="Y37" t="s">
@@ -43466,7 +43875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -43512,7 +43921,7 @@
       <c r="T38" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="7" t="s">
+      <c r="U38" t="s">
         <v>133</v>
       </c>
       <c r="V38" t="s">
@@ -43657,7 +44066,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -43697,7 +44106,7 @@
       <c r="R39" t="s">
         <v>152</v>
       </c>
-      <c r="U39" s="7" t="s">
+      <c r="U39" t="s">
         <v>161</v>
       </c>
       <c r="V39" t="s">
@@ -43818,7 +44227,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -43864,7 +44273,7 @@
       <c r="T40" t="s">
         <v>108</v>
       </c>
-      <c r="U40" s="7" t="s">
+      <c r="U40" t="s">
         <v>133</v>
       </c>
       <c r="V40" t="s">
@@ -44006,7 +44415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -44046,7 +44455,7 @@
       <c r="R41" t="s">
         <v>152</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" t="s">
         <v>161</v>
       </c>
       <c r="V41" t="s">
@@ -44170,7 +44579,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -44219,7 +44628,7 @@
       <c r="T42" t="s">
         <v>108</v>
       </c>
-      <c r="U42" s="7" t="s">
+      <c r="U42" t="s">
         <v>109</v>
       </c>
       <c r="V42" t="s">
@@ -44364,7 +44773,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -44404,7 +44813,7 @@
       <c r="R43" t="s">
         <v>152</v>
       </c>
-      <c r="U43" s="7" t="s">
+      <c r="U43" t="s">
         <v>161</v>
       </c>
       <c r="V43" t="s">
@@ -44522,7 +44931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -44568,7 +44977,7 @@
       <c r="T44" t="s">
         <v>108</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44">
         <v>45154</v>
       </c>
       <c r="V44" t="s">
@@ -44713,7 +45122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -44750,7 +45159,7 @@
       <c r="R45" t="s">
         <v>152</v>
       </c>
-      <c r="U45" s="7" t="s">
+      <c r="U45" t="s">
         <v>142</v>
       </c>
       <c r="Y45" t="s">
@@ -44847,7 +45256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -44893,7 +45302,7 @@
       <c r="T46" t="s">
         <v>110</v>
       </c>
-      <c r="U46" s="7" t="s">
+      <c r="U46" t="s">
         <v>109</v>
       </c>
       <c r="W46" t="s">
@@ -45008,7 +45417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -45057,7 +45466,7 @@
       <c r="T47" t="s">
         <v>108</v>
       </c>
-      <c r="U47" s="7" t="s">
+      <c r="U47" t="s">
         <v>109</v>
       </c>
       <c r="V47" t="s">
@@ -45202,7 +45611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -45245,7 +45654,7 @@
       <c r="T48" t="s">
         <v>108</v>
       </c>
-      <c r="U48" s="7" t="s">
+      <c r="U48" t="s">
         <v>133</v>
       </c>
       <c r="V48" t="s">
@@ -45390,7 +45799,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -45430,7 +45839,7 @@
       <c r="R49" t="s">
         <v>152</v>
       </c>
-      <c r="U49" s="7" t="s">
+      <c r="U49" t="s">
         <v>161</v>
       </c>
       <c r="V49" t="s">
@@ -45551,7 +45960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -45600,7 +46009,7 @@
       <c r="T50" t="s">
         <v>110</v>
       </c>
-      <c r="U50" s="7" t="s">
+      <c r="U50" t="s">
         <v>109</v>
       </c>
       <c r="W50" s="2">
@@ -45715,7 +46124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -45773,7 +46182,7 @@
       <c r="T51" t="s">
         <v>108</v>
       </c>
-      <c r="U51" s="7" t="s">
+      <c r="U51" t="s">
         <v>109</v>
       </c>
       <c r="V51" t="s">
@@ -45918,7 +46327,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -45961,7 +46370,7 @@
       <c r="T52" t="s">
         <v>110</v>
       </c>
-      <c r="U52" s="7" t="s">
+      <c r="U52" t="s">
         <v>109</v>
       </c>
       <c r="W52" t="s">
@@ -46076,7 +46485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -46122,7 +46531,7 @@
       <c r="T53" t="s">
         <v>110</v>
       </c>
-      <c r="U53" s="7" t="s">
+      <c r="U53" t="s">
         <v>109</v>
       </c>
       <c r="W53" t="s">
@@ -46237,7 +46646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -46295,7 +46704,7 @@
       <c r="T54" t="s">
         <v>108</v>
       </c>
-      <c r="U54" s="7" t="s">
+      <c r="U54" t="s">
         <v>109</v>
       </c>
       <c r="V54" t="s">
@@ -46440,7 +46849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -46483,7 +46892,7 @@
       <c r="T55" t="s">
         <v>110</v>
       </c>
-      <c r="U55" s="7" t="s">
+      <c r="U55" t="s">
         <v>109</v>
       </c>
       <c r="W55" t="s">
@@ -46598,7 +47007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -46644,7 +47053,7 @@
       <c r="T56" t="s">
         <v>108</v>
       </c>
-      <c r="U56" s="7" t="s">
+      <c r="U56" t="s">
         <v>109</v>
       </c>
       <c r="V56" t="s">
@@ -46826,7 +47235,7 @@
       <c r="R57" t="s">
         <v>152</v>
       </c>
-      <c r="U57" s="7" t="s">
+      <c r="U57" t="s">
         <v>142</v>
       </c>
       <c r="Y57" t="s">
@@ -46926,7 +47335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -46966,7 +47375,7 @@
       <c r="R58" t="s">
         <v>152</v>
       </c>
-      <c r="U58" s="7" t="s">
+      <c r="U58" t="s">
         <v>142</v>
       </c>
       <c r="V58" t="s">
@@ -47087,7 +47496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -47136,7 +47545,7 @@
       <c r="T59" t="s">
         <v>110</v>
       </c>
-      <c r="U59" s="7" t="s">
+      <c r="U59" t="s">
         <v>109</v>
       </c>
       <c r="W59" s="2">
@@ -47251,7 +47660,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -47306,7 +47715,7 @@
       <c r="T60" t="s">
         <v>108</v>
       </c>
-      <c r="U60" s="7" t="s">
+      <c r="U60" t="s">
         <v>109</v>
       </c>
       <c r="V60" t="s">
@@ -47424,7 +47833,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -47464,7 +47873,7 @@
       <c r="S61" t="s">
         <v>107</v>
       </c>
-      <c r="U61" s="7" t="s">
+      <c r="U61" t="s">
         <v>109</v>
       </c>
       <c r="W61" t="s">
@@ -47592,7 +48001,7 @@
       <c r="R62" t="s">
         <v>106</v>
       </c>
-      <c r="U62" s="7" t="s">
+      <c r="U62" t="s">
         <v>142</v>
       </c>
       <c r="Y62" t="s">
@@ -47692,7 +48101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -47750,7 +48159,7 @@
       <c r="T63" t="s">
         <v>108</v>
       </c>
-      <c r="U63" s="7" t="s">
+      <c r="U63" t="s">
         <v>109</v>
       </c>
       <c r="V63" t="s">
@@ -47895,7 +48304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -47935,7 +48344,7 @@
       <c r="R64" t="s">
         <v>152</v>
       </c>
-      <c r="U64" s="7" t="s">
+      <c r="U64" t="s">
         <v>142</v>
       </c>
       <c r="V64" t="s">
@@ -48056,7 +48465,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -48099,7 +48508,7 @@
       <c r="T65" t="s">
         <v>108</v>
       </c>
-      <c r="U65" s="7" t="s">
+      <c r="U65" t="s">
         <v>133</v>
       </c>
       <c r="W65" t="s">
@@ -48211,7 +48620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -48266,7 +48675,7 @@
       <c r="T66" t="s">
         <v>108</v>
       </c>
-      <c r="U66" s="7" t="s">
+      <c r="U66" t="s">
         <v>109</v>
       </c>
       <c r="V66" t="s">
@@ -48411,7 +48820,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -48451,7 +48860,7 @@
       <c r="R67" t="s">
         <v>152</v>
       </c>
-      <c r="U67" s="7" t="s">
+      <c r="U67" t="s">
         <v>142</v>
       </c>
       <c r="V67" t="s">
@@ -48572,7 +48981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -48612,7 +49021,7 @@
       <c r="R68" t="s">
         <v>152</v>
       </c>
-      <c r="U68" s="7" t="s">
+      <c r="U68" t="s">
         <v>161</v>
       </c>
       <c r="V68" t="s">
@@ -48736,7 +49145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -48776,7 +49185,7 @@
       <c r="R69" t="s">
         <v>152</v>
       </c>
-      <c r="U69" s="7" t="s">
+      <c r="U69" t="s">
         <v>142</v>
       </c>
       <c r="V69" t="s">
@@ -48897,7 +49306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -48940,7 +49349,7 @@
       <c r="T70" t="s">
         <v>110</v>
       </c>
-      <c r="U70" s="7" t="s">
+      <c r="U70" t="s">
         <v>109</v>
       </c>
       <c r="W70" t="s">
@@ -49055,7 +49464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -49110,7 +49519,7 @@
       <c r="T71" t="s">
         <v>108</v>
       </c>
-      <c r="U71" s="7" t="s">
+      <c r="U71" t="s">
         <v>109</v>
       </c>
       <c r="V71" t="s">
@@ -49255,7 +49664,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -49313,7 +49722,7 @@
       <c r="T72" t="s">
         <v>108</v>
       </c>
-      <c r="U72" s="7" t="s">
+      <c r="U72" t="s">
         <v>109</v>
       </c>
       <c r="V72" t="s">
@@ -49458,7 +49867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -49504,7 +49913,7 @@
       <c r="T73" t="s">
         <v>110</v>
       </c>
-      <c r="U73" s="7" t="s">
+      <c r="U73" t="s">
         <v>109</v>
       </c>
       <c r="V73" t="s">
@@ -49649,7 +50058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -49689,7 +50098,7 @@
       <c r="R74" t="s">
         <v>152</v>
       </c>
-      <c r="U74" s="7" t="s">
+      <c r="U74" t="s">
         <v>142</v>
       </c>
       <c r="V74" t="s">
@@ -49810,7 +50219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -49850,7 +50259,7 @@
       <c r="R75" t="s">
         <v>152</v>
       </c>
-      <c r="U75" s="7" t="s">
+      <c r="U75" t="s">
         <v>161</v>
       </c>
       <c r="V75" t="s">
@@ -49971,7 +50380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -50020,7 +50429,7 @@
       <c r="T76" t="s">
         <v>110</v>
       </c>
-      <c r="U76" s="7" t="s">
+      <c r="U76" t="s">
         <v>109</v>
       </c>
       <c r="W76" t="s">
@@ -50135,7 +50544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -50181,7 +50590,7 @@
       <c r="T77" t="s">
         <v>108</v>
       </c>
-      <c r="U77" s="7" t="s">
+      <c r="U77" t="s">
         <v>109</v>
       </c>
       <c r="V77" t="s">
@@ -50326,7 +50735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -50384,7 +50793,7 @@
       <c r="T78" t="s">
         <v>108</v>
       </c>
-      <c r="U78" s="7" t="s">
+      <c r="U78" t="s">
         <v>109</v>
       </c>
       <c r="V78" t="s">
@@ -50529,7 +50938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -50572,7 +50981,7 @@
       <c r="T79" t="s">
         <v>108</v>
       </c>
-      <c r="U79" s="7" t="s">
+      <c r="U79" t="s">
         <v>109</v>
       </c>
       <c r="W79" t="s">
@@ -50687,7 +51096,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -50727,7 +51136,7 @@
       <c r="R80" t="s">
         <v>152</v>
       </c>
-      <c r="U80" s="7" t="s">
+      <c r="U80" t="s">
         <v>161</v>
       </c>
       <c r="V80" t="s">
@@ -50848,7 +51257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -50891,7 +51300,7 @@
       <c r="T81" t="s">
         <v>110</v>
       </c>
-      <c r="U81" s="7" t="s">
+      <c r="U81" t="s">
         <v>109</v>
       </c>
       <c r="Y81" t="s">
@@ -50982,7 +51391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -51022,7 +51431,7 @@
       <c r="R82" t="s">
         <v>106</v>
       </c>
-      <c r="U82" s="7" t="s">
+      <c r="U82" t="s">
         <v>142</v>
       </c>
       <c r="V82" t="s">
@@ -51143,7 +51552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>99</v>
       </c>
@@ -51201,7 +51610,7 @@
       <c r="T83" t="s">
         <v>108</v>
       </c>
-      <c r="U83" s="7" t="s">
+      <c r="U83" t="s">
         <v>109</v>
       </c>
       <c r="V83" t="s">
@@ -51346,7 +51755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -51392,7 +51801,7 @@
       <c r="T84" t="s">
         <v>108</v>
       </c>
-      <c r="U84" s="7">
+      <c r="U84">
         <v>45154</v>
       </c>
       <c r="V84" t="s">
@@ -51513,7 +51922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -51559,7 +51968,7 @@
       <c r="T85" t="s">
         <v>108</v>
       </c>
-      <c r="U85" s="7" t="s">
+      <c r="U85" t="s">
         <v>133</v>
       </c>
       <c r="V85" t="s">
@@ -51704,7 +52113,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -51759,7 +52168,7 @@
       <c r="T86" t="s">
         <v>110</v>
       </c>
-      <c r="U86" s="7" t="s">
+      <c r="U86" t="s">
         <v>109</v>
       </c>
       <c r="W86" t="s">
@@ -51874,7 +52283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -51914,7 +52323,7 @@
       <c r="R87" t="s">
         <v>152</v>
       </c>
-      <c r="U87" s="7" t="s">
+      <c r="U87" t="s">
         <v>161</v>
       </c>
       <c r="V87" t="s">
@@ -52075,7 +52484,7 @@
       <c r="R88" t="s">
         <v>106</v>
       </c>
-      <c r="U88" s="7" t="s">
+      <c r="U88" t="s">
         <v>161</v>
       </c>
       <c r="Y88">
@@ -52172,7 +52581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -52218,7 +52627,7 @@
       <c r="T89" t="s">
         <v>135</v>
       </c>
-      <c r="U89" s="7" t="s">
+      <c r="U89" t="s">
         <v>109</v>
       </c>
       <c r="V89" t="s">
@@ -52360,7 +52769,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -52400,7 +52809,7 @@
       <c r="R90" t="s">
         <v>152</v>
       </c>
-      <c r="U90" s="7" t="s">
+      <c r="U90" t="s">
         <v>161</v>
       </c>
       <c r="V90" t="s">
@@ -52524,7 +52933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -52564,7 +52973,7 @@
       <c r="R91" t="s">
         <v>152</v>
       </c>
-      <c r="U91" s="7" t="s">
+      <c r="U91" t="s">
         <v>161</v>
       </c>
       <c r="V91" t="s">
@@ -52688,7 +53097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -52728,7 +53137,7 @@
       <c r="R92" t="s">
         <v>152</v>
       </c>
-      <c r="U92" s="7" t="s">
+      <c r="U92" t="s">
         <v>142</v>
       </c>
       <c r="V92" t="s">
@@ -52849,7 +53258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -52889,7 +53298,7 @@
       <c r="R93" t="s">
         <v>152</v>
       </c>
-      <c r="U93" s="7" t="s">
+      <c r="U93" t="s">
         <v>142</v>
       </c>
       <c r="V93" t="s">
@@ -53010,7 +53419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -53068,7 +53477,7 @@
       <c r="T94" t="s">
         <v>108</v>
       </c>
-      <c r="U94" s="7" t="s">
+      <c r="U94" t="s">
         <v>109</v>
       </c>
       <c r="V94" t="s">
@@ -53213,7 +53622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -53259,7 +53668,7 @@
       <c r="T95" t="s">
         <v>108</v>
       </c>
-      <c r="U95" s="7" t="s">
+      <c r="U95" t="s">
         <v>133</v>
       </c>
       <c r="V95" t="s">
@@ -53404,7 +53813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -53450,7 +53859,7 @@
       <c r="T96" t="s">
         <v>108</v>
       </c>
-      <c r="U96" s="7" t="s">
+      <c r="U96" t="s">
         <v>133</v>
       </c>
       <c r="V96" t="s">
@@ -53589,7 +53998,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -53632,7 +54041,7 @@
       <c r="T97" t="s">
         <v>108</v>
       </c>
-      <c r="U97" s="7" t="s">
+      <c r="U97" t="s">
         <v>109</v>
       </c>
       <c r="W97" t="s">
@@ -53747,7 +54156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -53796,7 +54205,7 @@
       <c r="T98" t="s">
         <v>110</v>
       </c>
-      <c r="U98" s="7" t="s">
+      <c r="U98" t="s">
         <v>109</v>
       </c>
       <c r="W98" t="s">
@@ -53911,7 +54320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -53969,7 +54378,7 @@
       <c r="T99" t="s">
         <v>108</v>
       </c>
-      <c r="U99" s="7" t="s">
+      <c r="U99" t="s">
         <v>109</v>
       </c>
       <c r="V99" t="s">
@@ -54114,7 +54523,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -54172,7 +54581,7 @@
       <c r="T100" t="s">
         <v>108</v>
       </c>
-      <c r="U100" s="7" t="s">
+      <c r="U100" t="s">
         <v>109</v>
       </c>
       <c r="V100" t="s">
@@ -54317,7 +54726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -54357,7 +54766,7 @@
       <c r="S101" t="s">
         <v>123</v>
       </c>
-      <c r="U101" s="7" t="s">
+      <c r="U101" t="s">
         <v>109</v>
       </c>
       <c r="W101" t="s">
@@ -54448,7 +54857,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -54494,7 +54903,7 @@
       <c r="T102" t="s">
         <v>108</v>
       </c>
-      <c r="U102" s="7" t="s">
+      <c r="U102" t="s">
         <v>109</v>
       </c>
       <c r="V102" t="s">
@@ -54636,7 +55045,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -54676,7 +55085,7 @@
       <c r="R103" t="s">
         <v>152</v>
       </c>
-      <c r="U103" s="7" t="s">
+      <c r="U103" t="s">
         <v>142</v>
       </c>
       <c r="V103" t="s">
@@ -54797,7 +55206,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -54843,7 +55252,7 @@
       <c r="T104" t="s">
         <v>108</v>
       </c>
-      <c r="U104" s="7" t="s">
+      <c r="U104" t="s">
         <v>133</v>
       </c>
       <c r="V104" t="s">
@@ -54982,7 +55391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -55022,7 +55431,7 @@
       <c r="R105" t="s">
         <v>152</v>
       </c>
-      <c r="U105" s="7" t="s">
+      <c r="U105" t="s">
         <v>161</v>
       </c>
       <c r="V105" t="s">
@@ -55143,7 +55552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -55183,7 +55592,7 @@
       <c r="R106" t="s">
         <v>152</v>
       </c>
-      <c r="U106" s="7" t="s">
+      <c r="U106" t="s">
         <v>142</v>
       </c>
       <c r="V106" t="s">
@@ -55304,7 +55713,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>99</v>
       </c>
@@ -55344,7 +55753,7 @@
       <c r="R107" t="s">
         <v>152</v>
       </c>
-      <c r="U107" s="7" t="s">
+      <c r="U107" t="s">
         <v>142</v>
       </c>
       <c r="V107" t="s">
@@ -55465,7 +55874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -55514,7 +55923,7 @@
       <c r="T108" t="s">
         <v>110</v>
       </c>
-      <c r="U108" s="7" t="s">
+      <c r="U108" t="s">
         <v>109</v>
       </c>
       <c r="W108" t="s">
@@ -55629,7 +56038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -55669,7 +56078,7 @@
       <c r="R109" t="s">
         <v>152</v>
       </c>
-      <c r="U109" s="7" t="s">
+      <c r="U109" t="s">
         <v>161</v>
       </c>
       <c r="V109" t="s">
@@ -55787,7 +56196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -55824,7 +56233,7 @@
       <c r="R110" t="s">
         <v>152</v>
       </c>
-      <c r="U110" s="7" t="s">
+      <c r="U110" t="s">
         <v>142</v>
       </c>
       <c r="Y110" t="s">
@@ -55924,7 +56333,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -55964,7 +56373,7 @@
       <c r="R111" t="s">
         <v>152</v>
       </c>
-      <c r="U111" s="7" t="s">
+      <c r="U111" t="s">
         <v>161</v>
       </c>
       <c r="V111" t="s">
@@ -56088,7 +56497,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -56128,7 +56537,7 @@
       <c r="R112" t="s">
         <v>152</v>
       </c>
-      <c r="U112" s="7" t="s">
+      <c r="U112" t="s">
         <v>142</v>
       </c>
       <c r="V112" t="s">
@@ -56249,7 +56658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -56289,7 +56698,7 @@
       <c r="R113" t="s">
         <v>152</v>
       </c>
-      <c r="U113" s="7" t="s">
+      <c r="U113" t="s">
         <v>161</v>
       </c>
       <c r="V113" t="s">
@@ -56410,7 +56819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -56468,7 +56877,7 @@
       <c r="T114" t="s">
         <v>108</v>
       </c>
-      <c r="U114" s="7" t="s">
+      <c r="U114" t="s">
         <v>109</v>
       </c>
       <c r="V114" t="s">
@@ -56613,7 +57022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -56668,7 +57077,7 @@
       <c r="T115" t="s">
         <v>110</v>
       </c>
-      <c r="U115" s="7" t="s">
+      <c r="U115" t="s">
         <v>109</v>
       </c>
       <c r="W115" t="s">
@@ -56783,7 +57192,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -56823,7 +57232,7 @@
       <c r="R116" t="s">
         <v>152</v>
       </c>
-      <c r="U116" s="7" t="s">
+      <c r="U116" t="s">
         <v>142</v>
       </c>
       <c r="V116" t="s">
@@ -56944,7 +57353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -56993,7 +57402,7 @@
       <c r="T117" t="s">
         <v>110</v>
       </c>
-      <c r="U117" s="7" t="s">
+      <c r="U117" t="s">
         <v>109</v>
       </c>
       <c r="W117" t="s">
@@ -57108,7 +57517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -57166,7 +57575,7 @@
       <c r="T118" t="s">
         <v>108</v>
       </c>
-      <c r="U118" s="7" t="s">
+      <c r="U118" t="s">
         <v>109</v>
       </c>
       <c r="V118" t="s">
@@ -57311,7 +57720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -57348,7 +57757,7 @@
       <c r="R119" t="s">
         <v>106</v>
       </c>
-      <c r="U119" s="7" t="s">
+      <c r="U119" t="s">
         <v>142</v>
       </c>
       <c r="Y119" t="s">
@@ -57448,7 +57857,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -57506,7 +57915,7 @@
       <c r="T120" t="s">
         <v>108</v>
       </c>
-      <c r="U120" s="7" t="s">
+      <c r="U120" t="s">
         <v>109</v>
       </c>
       <c r="V120" t="s">
@@ -57651,7 +58060,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -57697,7 +58106,7 @@
       <c r="T121" t="s">
         <v>108</v>
       </c>
-      <c r="U121" s="7" t="s">
+      <c r="U121" t="s">
         <v>133</v>
       </c>
       <c r="V121" t="s">
@@ -57848,7 +58257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -57888,7 +58297,7 @@
       <c r="R122" t="s">
         <v>106</v>
       </c>
-      <c r="U122" s="7" t="s">
+      <c r="U122" t="s">
         <v>142</v>
       </c>
       <c r="V122" t="s">
@@ -58009,7 +58418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -58058,7 +58467,7 @@
       <c r="T123" t="s">
         <v>110</v>
       </c>
-      <c r="U123" s="7" t="s">
+      <c r="U123" t="s">
         <v>109</v>
       </c>
       <c r="W123" t="s">
@@ -58173,7 +58582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -58231,7 +58640,7 @@
       <c r="T124" t="s">
         <v>108</v>
       </c>
-      <c r="U124" s="7" t="s">
+      <c r="U124" t="s">
         <v>109</v>
       </c>
       <c r="V124" t="s">
@@ -58376,7 +58785,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -58431,7 +58840,7 @@
       <c r="T125" t="s">
         <v>108</v>
       </c>
-      <c r="U125" s="7" t="s">
+      <c r="U125" t="s">
         <v>109</v>
       </c>
       <c r="W125" t="s">
@@ -58546,7 +58955,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -58604,7 +59013,7 @@
       <c r="T126" t="s">
         <v>108</v>
       </c>
-      <c r="U126" s="7" t="s">
+      <c r="U126" t="s">
         <v>109</v>
       </c>
       <c r="V126" t="s">
@@ -58749,7 +59158,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="127" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -58795,7 +59204,7 @@
       <c r="T127" t="s">
         <v>108</v>
       </c>
-      <c r="U127" s="7" t="s">
+      <c r="U127" t="s">
         <v>109</v>
       </c>
       <c r="V127" t="s">
@@ -58937,7 +59346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -58977,7 +59386,7 @@
       <c r="R128" t="s">
         <v>106</v>
       </c>
-      <c r="U128" s="7" t="s">
+      <c r="U128" t="s">
         <v>161</v>
       </c>
       <c r="V128" t="s">
@@ -59098,7 +59507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -59156,7 +59565,7 @@
       <c r="T129" t="s">
         <v>108</v>
       </c>
-      <c r="U129" s="7" t="s">
+      <c r="U129" t="s">
         <v>109</v>
       </c>
       <c r="V129" t="s">
@@ -59301,7 +59710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -59350,7 +59759,7 @@
       <c r="T130" t="s">
         <v>110</v>
       </c>
-      <c r="U130" s="7" t="s">
+      <c r="U130" t="s">
         <v>109</v>
       </c>
       <c r="W130" t="s">
@@ -59465,7 +59874,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -59511,7 +59920,7 @@
       <c r="T131" t="s">
         <v>108</v>
       </c>
-      <c r="U131" s="7" t="s">
+      <c r="U131" t="s">
         <v>109</v>
       </c>
       <c r="V131" t="s">
@@ -59629,7 +60038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -59672,7 +60081,7 @@
       <c r="T132" t="s">
         <v>108</v>
       </c>
-      <c r="U132" s="7" t="s">
+      <c r="U132" t="s">
         <v>109</v>
       </c>
       <c r="W132" t="s">
@@ -59787,7 +60196,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -59827,7 +60236,7 @@
       <c r="R133" t="s">
         <v>106</v>
       </c>
-      <c r="U133" s="7" t="s">
+      <c r="U133" t="s">
         <v>142</v>
       </c>
       <c r="V133" t="s">
@@ -59948,7 +60357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -59997,7 +60406,7 @@
       <c r="T134" t="s">
         <v>110</v>
       </c>
-      <c r="U134" s="7" t="s">
+      <c r="U134" t="s">
         <v>109</v>
       </c>
       <c r="W134" t="s">
@@ -60112,7 +60521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -60158,7 +60567,7 @@
       <c r="T135" t="s">
         <v>108</v>
       </c>
-      <c r="U135" s="7" t="s">
+      <c r="U135" t="s">
         <v>133</v>
       </c>
       <c r="V135" t="s">
@@ -60303,7 +60712,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -60349,7 +60758,7 @@
       <c r="T136" t="s">
         <v>108</v>
       </c>
-      <c r="U136" s="7" t="s">
+      <c r="U136" t="s">
         <v>161</v>
       </c>
       <c r="V136" t="s">
@@ -60467,7 +60876,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -60513,7 +60922,7 @@
       <c r="T137" t="s">
         <v>108</v>
       </c>
-      <c r="U137" s="7" t="s">
+      <c r="U137" t="s">
         <v>133</v>
       </c>
       <c r="V137" t="s">
@@ -60658,7 +61067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -60698,7 +61107,7 @@
       <c r="R138" t="s">
         <v>106</v>
       </c>
-      <c r="U138" s="7" t="s">
+      <c r="U138" t="s">
         <v>142</v>
       </c>
       <c r="V138" t="s">
@@ -60816,7 +61225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -60859,7 +61268,7 @@
       <c r="T139" t="s">
         <v>108</v>
       </c>
-      <c r="U139" s="7" t="s">
+      <c r="U139" t="s">
         <v>109</v>
       </c>
       <c r="W139" t="s">
@@ -60971,7 +61380,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -61011,7 +61420,7 @@
       <c r="S140" t="s">
         <v>123</v>
       </c>
-      <c r="U140" s="7" t="s">
+      <c r="U140" t="s">
         <v>109</v>
       </c>
       <c r="W140" t="s">
@@ -61102,7 +61511,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -61142,7 +61551,7 @@
       <c r="R141" t="s">
         <v>152</v>
       </c>
-      <c r="U141" s="7" t="s">
+      <c r="U141" t="s">
         <v>142</v>
       </c>
       <c r="V141" t="s">
@@ -61263,7 +61672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -61300,7 +61709,7 @@
       <c r="R142" t="s">
         <v>152</v>
       </c>
-      <c r="U142" s="7" t="s">
+      <c r="U142" t="s">
         <v>142</v>
       </c>
       <c r="Y142" t="s">
@@ -61400,7 +61809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -61440,7 +61849,7 @@
       <c r="R143" t="s">
         <v>106</v>
       </c>
-      <c r="U143" s="7" t="s">
+      <c r="U143" t="s">
         <v>161</v>
       </c>
       <c r="V143" t="s">
@@ -61601,7 +62010,7 @@
       <c r="R144" t="s">
         <v>152</v>
       </c>
-      <c r="U144" s="7" t="s">
+      <c r="U144" t="s">
         <v>142</v>
       </c>
       <c r="Y144" t="s">
@@ -61701,7 +62110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -61759,7 +62168,7 @@
       <c r="T145" t="s">
         <v>108</v>
       </c>
-      <c r="U145" s="7" t="s">
+      <c r="U145" t="s">
         <v>109</v>
       </c>
       <c r="V145" t="s">
@@ -61904,7 +62313,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -61950,7 +62359,7 @@
       <c r="T146" t="s">
         <v>108</v>
       </c>
-      <c r="U146" s="7" t="s">
+      <c r="U146" t="s">
         <v>133</v>
       </c>
       <c r="V146" t="s">
@@ -62095,7 +62504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -62138,7 +62547,7 @@
       <c r="T147" t="s">
         <v>108</v>
       </c>
-      <c r="U147" s="7" t="s">
+      <c r="U147" t="s">
         <v>133</v>
       </c>
       <c r="W147" t="s">
@@ -62256,7 +62665,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -62314,7 +62723,7 @@
       <c r="T148" t="s">
         <v>108</v>
       </c>
-      <c r="U148" s="7" t="s">
+      <c r="U148" t="s">
         <v>109</v>
       </c>
       <c r="V148" t="s">
@@ -62499,7 +62908,7 @@
       <c r="R149" t="s">
         <v>152</v>
       </c>
-      <c r="U149" s="7" t="s">
+      <c r="U149" t="s">
         <v>142</v>
       </c>
       <c r="Y149" t="s">
@@ -62599,7 +63008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -62639,7 +63048,7 @@
       <c r="R150" t="s">
         <v>152</v>
       </c>
-      <c r="U150" s="7" t="s">
+      <c r="U150" t="s">
         <v>142</v>
       </c>
       <c r="V150" t="s">
@@ -62760,7 +63169,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -62806,7 +63215,7 @@
       <c r="T151" t="s">
         <v>108</v>
       </c>
-      <c r="U151" s="7" t="s">
+      <c r="U151" t="s">
         <v>133</v>
       </c>
       <c r="V151" t="s">
@@ -62951,7 +63360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -63003,7 +63412,7 @@
       <c r="T152" t="s">
         <v>108</v>
       </c>
-      <c r="U152" s="7" t="s">
+      <c r="U152" t="s">
         <v>109</v>
       </c>
       <c r="V152" t="s">
@@ -63148,7 +63557,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -63203,7 +63612,7 @@
       <c r="T153" t="s">
         <v>110</v>
       </c>
-      <c r="U153" s="7" t="s">
+      <c r="U153" t="s">
         <v>109</v>
       </c>
       <c r="W153" t="s">
@@ -63318,7 +63727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -63364,7 +63773,7 @@
       <c r="T154" t="s">
         <v>108</v>
       </c>
-      <c r="U154" s="7">
+      <c r="U154">
         <v>45154</v>
       </c>
       <c r="V154" t="s">
@@ -63485,7 +63894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -63525,7 +63934,7 @@
       <c r="R155" t="s">
         <v>152</v>
       </c>
-      <c r="U155" s="7" t="s">
+      <c r="U155" t="s">
         <v>161</v>
       </c>
       <c r="V155" t="s">
@@ -63646,7 +64055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -63704,7 +64113,7 @@
       <c r="T156" t="s">
         <v>108</v>
       </c>
-      <c r="U156" s="7" t="s">
+      <c r="U156" t="s">
         <v>109</v>
       </c>
       <c r="V156" t="s">
@@ -63849,7 +64258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -63895,7 +64304,7 @@
       <c r="T157" t="s">
         <v>108</v>
       </c>
-      <c r="U157" s="7" t="s">
+      <c r="U157" t="s">
         <v>133</v>
       </c>
       <c r="V157" t="s">
@@ -64037,7 +64446,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -64077,7 +64486,7 @@
       <c r="S158" t="s">
         <v>123</v>
       </c>
-      <c r="U158" s="7" t="s">
+      <c r="U158" t="s">
         <v>109</v>
       </c>
       <c r="W158" t="s">
@@ -64171,7 +64580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>99</v>
       </c>
@@ -64211,7 +64620,7 @@
       <c r="R159" t="s">
         <v>152</v>
       </c>
-      <c r="U159" s="7" t="s">
+      <c r="U159" t="s">
         <v>142</v>
       </c>
       <c r="V159" t="s">
@@ -64332,7 +64741,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>99</v>
       </c>
@@ -64378,7 +64787,7 @@
       <c r="T160" t="s">
         <v>108</v>
       </c>
-      <c r="U160" s="7" t="s">
+      <c r="U160" t="s">
         <v>133</v>
       </c>
       <c r="V160" t="s">
@@ -64523,7 +64932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>99</v>
       </c>
@@ -64566,7 +64975,7 @@
       <c r="T161" t="s">
         <v>110</v>
       </c>
-      <c r="U161" s="7" t="s">
+      <c r="U161" t="s">
         <v>109</v>
       </c>
       <c r="W161" t="s">
@@ -64681,7 +65090,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>99</v>
       </c>
@@ -64727,7 +65136,7 @@
       <c r="T162" t="s">
         <v>110</v>
       </c>
-      <c r="U162" s="7" t="s">
+      <c r="U162" t="s">
         <v>109</v>
       </c>
       <c r="W162" t="s">
@@ -64842,7 +65251,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>99</v>
       </c>
@@ -64888,7 +65297,7 @@
       <c r="T163" t="s">
         <v>110</v>
       </c>
-      <c r="U163" s="7">
+      <c r="U163">
         <v>45154</v>
       </c>
       <c r="V163" t="s">
@@ -65033,7 +65442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="164" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>99</v>
       </c>
@@ -65091,7 +65500,7 @@
       <c r="T164" t="s">
         <v>108</v>
       </c>
-      <c r="U164" s="7" t="s">
+      <c r="U164" t="s">
         <v>109</v>
       </c>
       <c r="V164" t="s">
@@ -65237,13 +65646,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CX164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CX164" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="SANGRE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Enterococcus faecium"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3285AAC9-15B3-4C14-AF9C-97ADE2E80F96}">
   <dimension ref="A4:A106"/>
   <sheetViews>
@@ -65359,7 +65779,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -65774,7 +66194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -65786,7 +66206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -65798,7 +66218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -65967,7 +66387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:A7"/>
   <sheetViews>
